--- a/Results/scaling/data/Knee_results.xlsx
+++ b/Results/scaling/data/Knee_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\scaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\scaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8E04B-CE61-47A0-ABA9-CE843FEFA9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE80A2B-0505-464D-AA0B-35371D984EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="1440" windowWidth="18285" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="0" windowWidth="16935" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>ConViT-32M/10</t>
+  </si>
+  <si>
+    <t>PT-ViT-60M/10</t>
+  </si>
+  <si>
+    <t>PT-U-Net-124M</t>
   </si>
 </sst>
 </file>
@@ -371,8 +377,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1330,9 +1336,15 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.74399999999999999</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1358,9 +1370,15 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.74660000000000004</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1386,9 +1404,15 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.74739999999999995</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1414,10 +1438,16 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1442,10 +1472,16 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1470,10 +1506,16 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
